--- a/static/xls/template.xlsx
+++ b/static/xls/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\tgbot\pathcluster\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A43777D-4AE6-4A0D-9FE5-CEAA83DDC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F78886-6063-4E12-BCC5-DC5F370DF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{162BA1F8-31AD-4BDB-8BA2-12385A9A1817}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Номер заказа</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Иван Иванов</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241F6AEE-0460-485E-977C-0483104FF657}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +480,7 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,10 +494,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -507,7 +513,7 @@
       <c r="D2" s="3">
         <v>79205001252</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1500</v>
       </c>
     </row>

--- a/static/xls/template.xlsx
+++ b/static/xls/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\tgbot\pathcluster\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F78886-6063-4E12-BCC5-DC5F370DF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03F76C-12F7-4812-BB66-B4E4702C8064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{162BA1F8-31AD-4BDB-8BA2-12385A9A1817}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
